--- a/REGULAR/OJT/AALA, MELODY MARASIGAN.xlsx
+++ b/REGULAR/OJT/AALA, MELODY MARASIGAN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="68">
   <si>
     <t>PERIOD</t>
   </si>
@@ -233,6 +233,15 @@
   </si>
   <si>
     <t>SL(1-0-0)</t>
+  </si>
+  <si>
+    <t>SL(3-0-0)</t>
+  </si>
+  <si>
+    <t>7/12-14/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -617,14 +626,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -634,9 +646,6 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1167,7 +1176,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1210,7 +1219,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1274,7 +1283,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1334,7 +1343,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1400,7 +1409,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1463,7 +1472,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1561,7 +1570,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1620,7 +1629,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1685,7 +1694,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1728,7 +1737,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1803,7 +1812,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1989,7 +1998,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2055,7 +2064,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2113,7 +2122,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2179,7 +2188,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2235,7 +2244,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2310,7 +2319,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2353,7 +2362,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2419,7 +2428,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2475,7 +2484,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2953,7 +2962,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A70" activePane="bottomLeft"/>
       <selection activeCell="I10" sqref="I10"/>
-      <selection pane="bottomLeft" activeCell="D82" sqref="D82"/>
+      <selection pane="bottomLeft" activeCell="G87" sqref="G87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2983,14 +2992,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -3001,16 +3010,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54">
+      <c r="F3" s="55">
         <v>35814</v>
       </c>
-      <c r="G3" s="52"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3023,16 +3032,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="52"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3058,18 +3067,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3116,7 +3125,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>53</v>
+        <v>55.5</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3126,7 +3135,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>80</v>
+        <v>82.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4580,15 +4589,17 @@
       <c r="B81" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="C81" s="13"/>
+      <c r="C81" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D81" s="39">
         <v>2</v>
       </c>
       <c r="E81" s="9"/>
       <c r="F81" s="20"/>
-      <c r="G81" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G81" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H81" s="39"/>
       <c r="I81" s="9"/>
@@ -4598,15 +4609,19 @@
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="40"/>
+      <c r="A82" s="40">
+        <v>45078</v>
+      </c>
       <c r="B82" s="20"/>
-      <c r="C82" s="13"/>
+      <c r="C82" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D82" s="39"/>
       <c r="E82" s="9"/>
       <c r="F82" s="20"/>
-      <c r="G82" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G82" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H82" s="39"/>
       <c r="I82" s="9"/>
@@ -4684,9 +4699,8 @@
       <c r="D87" s="39"/>
       <c r="E87" s="9"/>
       <c r="F87" s="20"/>
-      <c r="G87" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G87" s="13" t="s">
+        <v>67</v>
       </c>
       <c r="H87" s="39"/>
       <c r="I87" s="9"/>
@@ -5815,17 +5829,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -5863,7 +5877,7 @@
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A7" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="K18" sqref="K18"/>
+      <selection pane="bottomLeft" activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5893,14 +5907,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -5911,16 +5925,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54">
+      <c r="F3" s="55">
         <v>35814</v>
       </c>
-      <c r="G3" s="52"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -5933,16 +5947,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="52"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -5968,18 +5982,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -6036,7 +6050,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table132[[EARNED ]])-SUM(Table132[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>131.5</v>
+        <v>128.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -6210,8 +6224,12 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="40"/>
-      <c r="B18" s="20"/>
+      <c r="A18" s="40">
+        <v>45108</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>65</v>
+      </c>
       <c r="C18" s="13"/>
       <c r="D18" s="39"/>
       <c r="E18" s="9"/>
@@ -6220,10 +6238,14 @@
         <f>IF(ISBLANK(Table132[[#This Row],[EARNED]]),"",Table132[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H18" s="39"/>
+      <c r="H18" s="39">
+        <v>3</v>
+      </c>
       <c r="I18" s="9"/>
       <c r="J18" s="11"/>
-      <c r="K18" s="20"/>
+      <c r="K18" s="20" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40"/>
@@ -7427,17 +7449,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">

--- a/REGULAR/OJT/AALA, MELODY MARASIGAN.xlsx
+++ b/REGULAR/OJT/AALA, MELODY MARASIGAN.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="68">
   <si>
     <t>PERIOD</t>
   </si>
@@ -2959,10 +2959,10 @@
   </sheetPr>
   <dimension ref="A2:K157"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A70" activePane="bottomLeft"/>
       <selection activeCell="I10" sqref="I10"/>
-      <selection pane="bottomLeft" activeCell="G87" sqref="G87"/>
+      <selection pane="bottomLeft" activeCell="A86" sqref="A86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3125,7 +3125,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>55.5</v>
+        <v>58</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3135,7 +3135,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>82.5</v>
+        <v>85</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4629,15 +4629,19 @@
       <c r="K82" s="20"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="40"/>
+      <c r="A83" s="40">
+        <v>45108</v>
+      </c>
       <c r="B83" s="20"/>
-      <c r="C83" s="13"/>
+      <c r="C83" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D83" s="39"/>
       <c r="E83" s="9"/>
       <c r="F83" s="20"/>
-      <c r="G83" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G83" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H83" s="39"/>
       <c r="I83" s="9"/>
@@ -4645,15 +4649,19 @@
       <c r="K83" s="20"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="40"/>
+      <c r="A84" s="40">
+        <v>45139</v>
+      </c>
       <c r="B84" s="20"/>
-      <c r="C84" s="13"/>
+      <c r="C84" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D84" s="39"/>
       <c r="E84" s="9"/>
       <c r="F84" s="20"/>
-      <c r="G84" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G84" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H84" s="39"/>
       <c r="I84" s="9"/>
@@ -4661,7 +4669,9 @@
       <c r="K84" s="20"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="40"/>
+      <c r="A85" s="40">
+        <v>45170</v>
+      </c>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
       <c r="D85" s="39"/>
@@ -4677,7 +4687,9 @@
       <c r="K85" s="20"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86" s="40"/>
+      <c r="A86" s="40">
+        <v>45200</v>
+      </c>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
       <c r="D86" s="39"/>
@@ -5874,10 +5886,10 @@
   </sheetPr>
   <dimension ref="A2:K93"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A7" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="I18" sqref="I18"/>
+      <selection pane="bottomLeft" activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6050,7 +6062,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table132[[EARNED ]])-SUM(Table132[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>128.5</v>
+        <v>126.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -6248,8 +6260,12 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="40"/>
-      <c r="B19" s="20"/>
+      <c r="A19" s="40">
+        <v>45174</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>64</v>
+      </c>
       <c r="C19" s="13"/>
       <c r="D19" s="39"/>
       <c r="E19" s="9"/>
@@ -6258,14 +6274,20 @@
         <f>IF(ISBLANK(Table132[[#This Row],[EARNED]]),"",Table132[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H19" s="39"/>
+      <c r="H19" s="39">
+        <v>1</v>
+      </c>
       <c r="I19" s="9"/>
       <c r="J19" s="11"/>
-      <c r="K19" s="20"/>
+      <c r="K19" s="49">
+        <v>45176</v>
+      </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40"/>
-      <c r="B20" s="20"/>
+      <c r="B20" s="20" t="s">
+        <v>64</v>
+      </c>
       <c r="C20" s="13"/>
       <c r="D20" s="39"/>
       <c r="E20" s="9"/>
@@ -6274,10 +6296,14 @@
         <f>IF(ISBLANK(Table132[[#This Row],[EARNED]]),"",Table132[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H20" s="39"/>
+      <c r="H20" s="39">
+        <v>1</v>
+      </c>
       <c r="I20" s="9"/>
       <c r="J20" s="11"/>
-      <c r="K20" s="20"/>
+      <c r="K20" s="49">
+        <v>45189</v>
+      </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40"/>
